--- a/DataBase/데이터모델링/제3정규화.xlsx
+++ b/DataBase/데이터모델링/제3정규화.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DoWonJin\Desktop\developer-wonjin\Study\DataBase\데이터모델링\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DoWonJin\Desktop\developer-wonjin\Study\Database\데이터모델링\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3D5474-F1C7-447E-845C-E50269F31B6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8300B05C-ADDA-4D31-A0FE-8CD7FB4268F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27225" windowHeight="10170" xr2:uid="{8220D4C0-54D1-4940-BFD1-84EDE2B55A8E}"/>
   </bookViews>
@@ -16,12 +16,50 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>제3정규형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별자가 아닌 일반속성 간에는 종속성이 존재하지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3정규형의 대상이 되는 속성을 이행 종속 속성이라고 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반속성간의 종속관계를 통으로 도려내는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,15 +421,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB436049-BEA8-429E-8769-356F0153C12F}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>